--- a/output/aaa_202409_202503.xlsx
+++ b/output/aaa_202409_202503.xlsx
@@ -2779,7 +2779,7 @@
       <c r="K35" s="61" t="n">
         <v>8</v>
       </c>
-      <c r="L35" s="60" t="n">
+      <c r="L35" s="61" t="n">
         <v>9</v>
       </c>
       <c r="M35" s="60" t="n">
@@ -2821,7 +2821,7 @@
       <c r="Y35" s="61" t="n">
         <v>22</v>
       </c>
-      <c r="Z35" s="60" t="n">
+      <c r="Z35" s="61" t="n">
         <v>23</v>
       </c>
       <c r="AA35" s="60" t="n">
@@ -2893,7 +2893,7 @@
           <t>金</t>
         </is>
       </c>
-      <c r="L36" s="64" t="inlineStr">
+      <c r="L36" s="12" t="inlineStr">
         <is>
           <t>土</t>
         </is>
@@ -2963,7 +2963,7 @@
           <t>金</t>
         </is>
       </c>
-      <c r="Z36" s="64" t="inlineStr">
+      <c r="Z36" s="12" t="inlineStr">
         <is>
           <t>土</t>
         </is>
@@ -3466,7 +3466,7 @@
       <c r="I48" s="61" t="n">
         <v>6</v>
       </c>
-      <c r="J48" s="60" t="n">
+      <c r="J48" s="61" t="n">
         <v>7</v>
       </c>
       <c r="K48" s="60" t="n">
@@ -3508,7 +3508,7 @@
       <c r="W48" s="61" t="n">
         <v>20</v>
       </c>
-      <c r="X48" s="60" t="n">
+      <c r="X48" s="61" t="n">
         <v>21</v>
       </c>
       <c r="Y48" s="60" t="n">
@@ -3535,10 +3535,10 @@
       <c r="AF48" s="60" t="n">
         <v>29</v>
       </c>
-      <c r="AG48" s="61" t="n">
+      <c r="AG48" s="60" t="n">
         <v>30</v>
       </c>
-      <c r="AH48" s="61" t="n">
+      <c r="AH48" s="60" t="n">
         <v>31</v>
       </c>
       <c r="AI48" s="62" t="n"/>
@@ -3578,7 +3578,7 @@
           <t>金</t>
         </is>
       </c>
-      <c r="J49" s="64" t="inlineStr">
+      <c r="J49" s="12" t="inlineStr">
         <is>
           <t>土</t>
         </is>
@@ -3648,7 +3648,7 @@
           <t>金</t>
         </is>
       </c>
-      <c r="X49" s="64" t="inlineStr">
+      <c r="X49" s="12" t="inlineStr">
         <is>
           <t>土</t>
         </is>
@@ -3693,12 +3693,12 @@
           <t>日</t>
         </is>
       </c>
-      <c r="AG49" s="12" t="inlineStr">
+      <c r="AG49" s="64" t="inlineStr">
         <is>
           <t>月</t>
         </is>
       </c>
-      <c r="AH49" s="12" t="inlineStr">
+      <c r="AH49" s="64" t="inlineStr">
         <is>
           <t>火</t>
         </is>
@@ -4150,10 +4150,10 @@
       <c r="D61" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="E61" s="61" t="n">
+      <c r="E61" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="F61" s="61" t="n">
+      <c r="F61" s="60" t="n">
         <v>3</v>
       </c>
       <c r="G61" s="60" t="n">
@@ -4177,7 +4177,7 @@
       <c r="M61" s="61" t="n">
         <v>10</v>
       </c>
-      <c r="N61" s="60" t="n">
+      <c r="N61" s="61" t="n">
         <v>11</v>
       </c>
       <c r="O61" s="60" t="n">
@@ -4252,12 +4252,12 @@
           <t>水</t>
         </is>
       </c>
-      <c r="E62" s="12" t="inlineStr">
+      <c r="E62" s="64" t="inlineStr">
         <is>
           <t>木</t>
         </is>
       </c>
-      <c r="F62" s="12" t="inlineStr">
+      <c r="F62" s="64" t="inlineStr">
         <is>
           <t>金</t>
         </is>
@@ -4297,7 +4297,7 @@
           <t>金</t>
         </is>
       </c>
-      <c r="N62" s="64" t="inlineStr">
+      <c r="N62" s="12" t="inlineStr">
         <is>
           <t>土</t>
         </is>
@@ -4867,7 +4867,7 @@
       <c r="J74" s="61" t="n">
         <v>7</v>
       </c>
-      <c r="K74" s="60" t="n">
+      <c r="K74" s="61" t="n">
         <v>8</v>
       </c>
       <c r="L74" s="60" t="n">
@@ -4975,7 +4975,7 @@
           <t>金</t>
         </is>
       </c>
-      <c r="K75" s="64" t="inlineStr">
+      <c r="K75" s="12" t="inlineStr">
         <is>
           <t>土</t>
         </is>
@@ -5587,7 +5587,7 @@
       <c r="W87" s="60" t="n">
         <v>20</v>
       </c>
-      <c r="X87" s="61" t="n">
+      <c r="X87" s="60" t="n">
         <v>21</v>
       </c>
       <c r="Y87" s="60" t="n">
@@ -5727,7 +5727,7 @@
           <t>木</t>
         </is>
       </c>
-      <c r="X88" s="12" t="inlineStr">
+      <c r="X88" s="64" t="inlineStr">
         <is>
           <t>金</t>
         </is>
